--- a/src/static/cleaned_data/cleaned_data.xlsx
+++ b/src/static/cleaned_data/cleaned_data.xlsx
@@ -518,29 +518,29 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Bitcoin</t>
+          <t>bitcoin</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>19834662</v>
+        <v>19836950</v>
       </c>
       <c r="F2" t="n">
         <v>21000000</v>
       </c>
       <c r="G2" t="n">
-        <v>1636123709996.327</v>
+        <v>1669824787615.691</v>
       </c>
       <c r="H2" t="n">
-        <v>10700047447.79693</v>
+        <v>8786812500.341389</v>
       </c>
       <c r="I2" t="n">
-        <v>82488.10642683634</v>
+        <v>84177.4964203515</v>
       </c>
       <c r="J2" t="n">
-        <v>-4.259199011659508</v>
+        <v>3.9783295004826</v>
       </c>
       <c r="K2" t="n">
-        <v>82719.49748641442</v>
+        <v>83635.11899738146</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="3">
@@ -569,29 +569,29 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Ethereum</t>
+          <t>ethereum</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>120604782.598963</v>
+        <v>120614183.5975569</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>248740291576.6521</v>
+        <v>230804228211.9705</v>
       </c>
       <c r="H3" t="n">
-        <v>7277687510.878576</v>
+        <v>4708845069.365868</v>
       </c>
       <c r="I3" t="n">
-        <v>2062.441357767439</v>
+        <v>1913.57451775386</v>
       </c>
       <c r="J3" t="n">
-        <v>-5.735695624402302</v>
+        <v>2.524001731076183</v>
       </c>
       <c r="K3" t="n">
-        <v>2054.769007151901</v>
+        <v>1911.119805876061</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -599,7 +599,7 @@
         </is>
       </c>
       <c r="M3" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="4">
@@ -620,29 +620,29 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Tether</t>
+          <t>tether</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>142799794449.0176</v>
+        <v>143346765715.551</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>142990807000.931</v>
+        <v>143495199812.1744</v>
       </c>
       <c r="H4" t="n">
-        <v>22555197962.36032</v>
+        <v>19518810874.4522</v>
       </c>
       <c r="I4" t="n">
-        <v>1.00133762483798</v>
+        <v>1.001035489680443</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0028863841702052</v>
+        <v>0.124273445090914</v>
       </c>
       <c r="K4" t="n">
-        <v>0.9999035615227369</v>
+        <v>0.9998232037708537</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -650,7 +650,7 @@
         </is>
       </c>
       <c r="M4" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="5">
@@ -671,29 +671,29 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>XRP</t>
+          <t>xrp</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>58043299826</v>
+        <v>58108919817</v>
       </c>
       <c r="F5" t="n">
         <v>100000000000</v>
       </c>
       <c r="G5" t="n">
-        <v>126831255060.1922</v>
+        <v>137321383871.9791</v>
       </c>
       <c r="H5" t="n">
-        <v>2237106058.891887</v>
+        <v>1452230193.560138</v>
       </c>
       <c r="I5" t="n">
-        <v>2.185114482470881</v>
+        <v>2.363172199800644</v>
       </c>
       <c r="J5" t="n">
-        <v>-5.847212622150175</v>
+        <v>5.304451994394133</v>
       </c>
       <c r="K5" t="n">
-        <v>2.193339944903887</v>
+        <v>2.320771372769524</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -701,7 +701,7 @@
         </is>
       </c>
       <c r="M5" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="6">
@@ -722,7 +722,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>BNB</t>
+          <t>bnb</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -732,19 +732,19 @@
         <v>144006830</v>
       </c>
       <c r="G6" t="n">
-        <v>80324774047.93991</v>
+        <v>84854061627.16994</v>
       </c>
       <c r="H6" t="n">
-        <v>271990866.9539849</v>
+        <v>273133462.06213</v>
       </c>
       <c r="I6" t="n">
-        <v>557.7844748609488</v>
+        <v>589.2363690470094</v>
       </c>
       <c r="J6" t="n">
-        <v>-5.303403646122685</v>
+        <v>1.774455744652548</v>
       </c>
       <c r="K6" t="n">
-        <v>567.1147573961448</v>
+        <v>582.9785078763113</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -752,7 +752,7 @@
         </is>
       </c>
       <c r="M6" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="7">
@@ -773,29 +773,29 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Solana</t>
+          <t>solana</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>509020775.3255477</v>
+        <v>509706862.6860305</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>65143155821.23097</v>
+        <v>68112452505.11774</v>
       </c>
       <c r="H7" t="n">
-        <v>1088927399.456777</v>
+        <v>1361078360.287158</v>
       </c>
       <c r="I7" t="n">
-        <v>127.9774008822493</v>
+        <v>133.6306365313227</v>
       </c>
       <c r="J7" t="n">
-        <v>-6.8883702558782</v>
+        <v>8.329736369115791</v>
       </c>
       <c r="K7" t="n">
-        <v>130.1032793012697</v>
+        <v>130.2765664686538</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -803,7 +803,7 @@
         </is>
       </c>
       <c r="M7" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="8">
@@ -824,29 +824,29 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>USDC</t>
+          <t>usdc</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>58117219269.54137</v>
+        <v>58692177034.216</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>58106612630.62291</v>
+        <v>58713544186.03512</v>
       </c>
       <c r="H8" t="n">
-        <v>4283431433.896265</v>
+        <v>4895681314.558918</v>
       </c>
       <c r="I8" t="n">
-        <v>0.999817495760262</v>
+        <v>1.000364054511161</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0024077577050593</v>
+        <v>0.1007973858507694</v>
       </c>
       <c r="K8" t="n">
-        <v>0.999890111541629</v>
+        <v>1.000023322517345</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="M8" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="9">
@@ -875,29 +875,29 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Cardano</t>
+          <t>cardano</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>35224212741.26694</v>
+        <v>35230631106.53998</v>
       </c>
       <c r="F9" t="n">
         <v>45000000000</v>
       </c>
       <c r="G9" t="n">
-        <v>26317853086.22255</v>
+        <v>26097862791.04559</v>
       </c>
       <c r="H9" t="n">
-        <v>806770429.4817662</v>
+        <v>451532681.7808547</v>
       </c>
       <c r="I9" t="n">
-        <v>0.7471523431775625</v>
+        <v>0.7407719354252771</v>
       </c>
       <c r="J9" t="n">
-        <v>-6.760534462574291</v>
+        <v>5.686283315379717</v>
       </c>
       <c r="K9" t="n">
-        <v>0.7575084108650727</v>
+        <v>0.7254161814410715</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -905,7 +905,7 @@
         </is>
       </c>
       <c r="M9" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="10">
@@ -926,29 +926,29 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Dogecoin</t>
+          <t>dogecoin</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>148363886383.7052</v>
+        <v>148430926383.7052</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>25672328318.82932</v>
+        <v>25544301254.01416</v>
       </c>
       <c r="H10" t="n">
-        <v>881975002.2321726</v>
+        <v>341581158.4636383</v>
       </c>
       <c r="I10" t="n">
-        <v>0.1730362350608315</v>
+        <v>0.1720955455602305</v>
       </c>
       <c r="J10" t="n">
-        <v>-9.36989716518536</v>
+        <v>4.215278276428207</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1751432938938923</v>
+        <v>0.1707477872241161</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -956,7 +956,7 @@
         </is>
       </c>
       <c r="M10" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="11">
@@ -977,29 +977,29 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>TRON</t>
+          <t>tron</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>95044220544.21872</v>
+        <v>95027519114.76102</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>22276453256.99925</v>
+        <v>21116971989.31823</v>
       </c>
       <c r="H11" t="n">
-        <v>321789828.7167851</v>
+        <v>255797575.2142717</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2343798826424724</v>
+        <v>0.2222195442545026</v>
       </c>
       <c r="J11" t="n">
-        <v>-2.98394045057918</v>
+        <v>-1.502001328198635</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2376426784409589</v>
+        <v>0.2232233056846497</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1007,7 +1007,7 @@
         </is>
       </c>
       <c r="M11" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="12">
@@ -1028,29 +1028,29 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Lido Staked ETH</t>
+          <t>lido staked eth</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>9355697.14038498</v>
+        <v>9340293.73930393</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>18806976895.81694</v>
+        <v>17934417009.90936</v>
       </c>
       <c r="H12" t="n">
-        <v>2319723.916244419</v>
+        <v>1331603.060712616</v>
       </c>
       <c r="I12" t="n">
-        <v>2010.216514452396</v>
+        <v>1920.112740613433</v>
       </c>
       <c r="J12" t="n">
-        <v>-8.239445166465869</v>
+        <v>3.072844721180048</v>
       </c>
       <c r="K12" t="n">
-        <v>2072.803694857921</v>
+        <v>1898.127196049693</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1058,7 +1058,7 @@
         </is>
       </c>
       <c r="M12" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="13">
@@ -1079,29 +1079,29 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Wrapped Bitcoin</t>
+          <t>wrapped bitcoin</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>129177.50652189</v>
+        <v>129177.40552189</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>10641713251.5408</v>
+        <v>10838182543.48352</v>
       </c>
       <c r="H13" t="n">
-        <v>83239393.9327317</v>
+        <v>30718959.4459933</v>
       </c>
       <c r="I13" t="n">
-        <v>82380.54393577791</v>
+        <v>83901.5344804004</v>
       </c>
       <c r="J13" t="n">
-        <v>-4.239050773421221</v>
+        <v>3.007070998852295</v>
       </c>
       <c r="K13" t="n">
-        <v>82376.28517014653</v>
+        <v>83989.75516474598</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1109,13 +1109,13 @@
         </is>
       </c>
       <c r="M13" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>unus-sed-leo</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1125,48 +1125,48 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>LEO</t>
+          <t>LINK</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>UNUS SED LEO</t>
+          <t>chainlink</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>923976944.9</v>
+        <v>657099970.4527867</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>9041960516.133265</v>
+        <v>9013870518.236137</v>
       </c>
       <c r="H14" t="n">
-        <v>209140.2054783563</v>
+        <v>466587159.6664888</v>
       </c>
       <c r="I14" t="n">
-        <v>9.785915726622221</v>
+        <v>13.71765473071771</v>
       </c>
       <c r="J14" t="n">
-        <v>-0.3283897742320692</v>
+        <v>5.465113568379713</v>
       </c>
       <c r="K14" t="n">
-        <v>9.684534406140768</v>
+        <v>13.9589523116621</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>https://eospark.com/account/bitfinexleo1</t>
+          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
         </is>
       </c>
       <c r="M14" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>chainlink</t>
+          <t>unus-sed-leo</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1176,48 +1176,48 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>LINK</t>
+          <t>LEO</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Chainlink</t>
+          <t>unus sed leo</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>638099970.4527867</v>
+        <v>923938277.9</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>9009804075.58787</v>
+        <v>8886443505.915665</v>
       </c>
       <c r="H15" t="n">
-        <v>279714843.5193009</v>
+        <v>250137.7798131042</v>
       </c>
       <c r="I15" t="n">
-        <v>14.1197374906547</v>
+        <v>9.618005572962598</v>
       </c>
       <c r="J15" t="n">
-        <v>-6.676426919890897</v>
+        <v>-1.60712340129933</v>
       </c>
       <c r="K15" t="n">
-        <v>14.28373729847436</v>
+        <v>9.624516694529472</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x514910771af9ca656af840dff83e8264ecf986ca</t>
+          <t>https://eospark.com/account/bitfinexleo1</t>
         </is>
       </c>
       <c r="M15" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hedera-hashgraph</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1227,48 +1227,48 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>HBAR</t>
+          <t>XLM</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Hedera</t>
+          <t>stellar</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>41903956526</v>
+        <v>30731886774.02106</v>
       </c>
       <c r="F16" t="n">
-        <v>50000000000</v>
+        <v>50001806812</v>
       </c>
       <c r="G16" t="n">
-        <v>8737905747.278498</v>
+        <v>8521473766.141351</v>
       </c>
       <c r="H16" t="n">
-        <v>137313251.6482661</v>
+        <v>115388240.8107174</v>
       </c>
       <c r="I16" t="n">
-        <v>0.2085222129766415</v>
+        <v>0.2772844319257647</v>
       </c>
       <c r="J16" t="n">
-        <v>-7.466194444050641</v>
+        <v>1.827445400305012</v>
       </c>
       <c r="K16" t="n">
-        <v>0.2106097808644851</v>
+        <v>0.2758227265490594</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>https://app.dragonglass.me/hedera/home</t>
+          <t>https://dashboard.stellar.org/</t>
         </is>
       </c>
       <c r="M16" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>stellar</t>
+          <t>hedera-hashgraph</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1278,42 +1278,42 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>XLM</t>
+          <t>HBAR</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Stellar</t>
+          <t>hedera</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>30714492819.19406</v>
+        <v>41903956526</v>
       </c>
       <c r="F17" t="n">
-        <v>50001806812</v>
+        <v>50000000000</v>
       </c>
       <c r="G17" t="n">
-        <v>8218346131.730051</v>
+        <v>8167341143.459148</v>
       </c>
       <c r="H17" t="n">
-        <v>135421629.9555724</v>
+        <v>112243746.4520576</v>
       </c>
       <c r="I17" t="n">
-        <v>0.2675722558763612</v>
+        <v>0.1949062050594575</v>
       </c>
       <c r="J17" t="n">
-        <v>-2.680230364023601</v>
+        <v>2.729769707423353</v>
       </c>
       <c r="K17" t="n">
-        <v>0.2684993387472274</v>
+        <v>0.191098394657373</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>https://dashboard.stellar.org/</t>
+          <t>https://app.dragonglass.me/hedera/home</t>
         </is>
       </c>
       <c r="M17" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="18">
@@ -1334,29 +1334,29 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Avalanche</t>
+          <t>avalanche</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>414197145.4935384</v>
+        <v>414361715.1800606</v>
       </c>
       <c r="F18" t="n">
         <v>715748719</v>
       </c>
       <c r="G18" t="n">
-        <v>7604985399.782144</v>
+        <v>7684868903.934512</v>
       </c>
       <c r="H18" t="n">
-        <v>124166033.2764333</v>
+        <v>115915084.7591626</v>
       </c>
       <c r="I18" t="n">
-        <v>18.36078660252569</v>
+        <v>18.5462812378674</v>
       </c>
       <c r="J18" t="n">
-        <v>-9.463566884376391</v>
+        <v>0.2512470411385453</v>
       </c>
       <c r="K18" t="n">
-        <v>18.77618250488687</v>
+        <v>18.79992613876006</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1364,13 +1364,13 @@
         </is>
       </c>
       <c r="M18" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>sui</t>
+          <t>shiba-inu</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1380,48 +1380,48 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>SUI</t>
+          <t>SHIB</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Sui</t>
+          <t>shiba inu</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>3169845047.483888</v>
+        <v>589252986014260.9</v>
       </c>
       <c r="F19" t="n">
-        <v>10000000000</v>
+        <v>589552695333683</v>
       </c>
       <c r="G19" t="n">
-        <v>7481823312.387126</v>
+        <v>7537308987.225641</v>
       </c>
       <c r="H19" t="n">
-        <v>463012136.6747533</v>
+        <v>61993619.82235394</v>
       </c>
       <c r="I19" t="n">
-        <v>2.360312002735256</v>
+        <v>1.27912953623e-05</v>
       </c>
       <c r="J19" t="n">
-        <v>-4.701418525217699</v>
+        <v>6.579441672027405</v>
       </c>
       <c r="K19" t="n">
-        <v>2.356380887134554</v>
+        <v>1.25170554406e-05</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>https://suiexplorer.com/</t>
+          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
         </is>
       </c>
       <c r="M19" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>litecoin</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1431,48 +1431,48 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>LTC</t>
+          <t>SUI</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Litecoin</t>
+          <t>sui</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>75558468.3040892</v>
+        <v>3169845047.483888</v>
       </c>
       <c r="F20" t="n">
-        <v>84000000</v>
+        <v>10000000000</v>
       </c>
       <c r="G20" t="n">
-        <v>7208539118.416112</v>
+        <v>7380984118.435974</v>
       </c>
       <c r="H20" t="n">
-        <v>389224809.5626576</v>
+        <v>447089840.1664319</v>
       </c>
       <c r="I20" t="n">
-        <v>95.40345748414262</v>
+        <v>2.328499976456181</v>
       </c>
       <c r="J20" t="n">
-        <v>-5.836680260603421</v>
+        <v>7.294101998317027</v>
       </c>
       <c r="K20" t="n">
-        <v>98.01037075627828</v>
+        <v>2.267496874022816</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>http://explorer.litecoin.net/chain/Litecoin</t>
+          <t>https://suiexplorer.com/</t>
         </is>
       </c>
       <c r="M20" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>shiba-inu</t>
+          <t>tontoken</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1482,48 +1482,48 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>SHIB</t>
+          <t>TON</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Shiba Inu</t>
+          <t>toncoin</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>589253499457136.6</v>
+        <v>2476378413.27</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>5047558527.7</v>
       </c>
       <c r="G21" t="n">
-        <v>7170818948.93981</v>
+        <v>7234943317.474533</v>
       </c>
       <c r="H21" t="n">
-        <v>132004713.3982837</v>
+        <v>53374265.8579074</v>
       </c>
       <c r="I21" t="n">
-        <v>1.21693277266e-05</v>
+        <v>2.921582290777991</v>
       </c>
       <c r="J21" t="n">
-        <v>-3.037265611409014</v>
+        <v>5.379806296614741</v>
       </c>
       <c r="K21" t="n">
-        <v>1.19777997011e-05</v>
+        <v>2.83696450537422</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x95ad61b0a150d79219dcf64e1e6cc01f0b64c4ce</t>
+          <t>https://tonscan.org/</t>
         </is>
       </c>
       <c r="M21" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>bitcoin-cash</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1533,48 +1533,48 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>BCH</t>
+          <t>LTC</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Bitcoin Cash</t>
+          <t>litecoin</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>19840131.25</v>
+        <v>75558468.3040892</v>
       </c>
       <c r="F22" t="n">
-        <v>21000000</v>
+        <v>84000000</v>
       </c>
       <c r="G22" t="n">
-        <v>7156927861.514474</v>
+        <v>6918709400.26874</v>
       </c>
       <c r="H22" t="n">
-        <v>102810032.97886</v>
+        <v>199858921.812993</v>
       </c>
       <c r="I22" t="n">
-        <v>360.7298647036155</v>
+        <v>91.56762379597234</v>
       </c>
       <c r="J22" t="n">
-        <v>-4.931712619370577</v>
+        <v>4.017566192065167</v>
       </c>
       <c r="K22" t="n">
-        <v>368.2969816677149</v>
+        <v>90.43947389681853</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
-          <t>https://blockchair.com/bitcoin-cash/blocks</t>
+          <t>http://explorer.litecoin.net/chain/Litecoin</t>
         </is>
       </c>
       <c r="M22" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>tontoken</t>
+          <t>bitcoin-cash</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1584,42 +1584,42 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>TON</t>
+          <t>BCH</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Toncoin</t>
+          <t>bitcoin cash</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>2476378413.27</v>
+        <v>19842162.5</v>
       </c>
       <c r="F23" t="n">
-        <v>5047558527.7</v>
+        <v>21000000</v>
       </c>
       <c r="G23" t="n">
-        <v>6645048551.22361</v>
+        <v>6601344359.935513</v>
       </c>
       <c r="H23" t="n">
-        <v>81206951.12548476</v>
+        <v>88460789.05537309</v>
       </c>
       <c r="I23" t="n">
-        <v>2.683373637734541</v>
+        <v>332.6927878922226</v>
       </c>
       <c r="J23" t="n">
-        <v>-9.022080974324339</v>
+        <v>1.939871004526977</v>
       </c>
       <c r="K23" t="n">
-        <v>2.783394600965751</v>
+        <v>329.7548364419319</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>https://tonscan.org/</t>
+          <t>https://blockchair.com/bitcoin-cash/blocks</t>
         </is>
       </c>
       <c r="M23" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="24">
@@ -1640,7 +1640,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Polkadot</t>
+          <t>polkadot</t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1650,19 +1650,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>6331359181.48901</v>
+        <v>6388124708.940218</v>
       </c>
       <c r="H24" t="n">
-        <v>98371093.71313553</v>
+        <v>105261321.2830977</v>
       </c>
       <c r="I24" t="n">
-        <v>4.159164543367976</v>
+        <v>4.196454667382882</v>
       </c>
       <c r="J24" t="n">
-        <v>-2.956908511266533</v>
+        <v>5.200428705844786</v>
       </c>
       <c r="K24" t="n">
-        <v>4.14794190189457</v>
+        <v>4.12016748744344</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1670,7 +1670,7 @@
         </is>
       </c>
       <c r="M24" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="25">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Mantra</t>
+          <t>mantra</t>
         </is>
       </c>
       <c r="E25" t="n">
@@ -1701,19 +1701,19 @@
         <v>888888888</v>
       </c>
       <c r="G25" t="n">
-        <v>5922800801.288637</v>
+        <v>6103117530.308524</v>
       </c>
       <c r="H25" t="n">
-        <v>93320051.70498134</v>
+        <v>28890101.81807273</v>
       </c>
       <c r="I25" t="n">
-        <v>6.076048765578585</v>
+        <v>6.261031052765431</v>
       </c>
       <c r="J25" t="n">
-        <v>-6.524095041516214</v>
+        <v>-0.2106480610313001</v>
       </c>
       <c r="K25" t="n">
-        <v>6.182087439487101</v>
+        <v>6.246651832474377</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="M25" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="26">
@@ -1742,26 +1742,26 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Ethena USDe</t>
+          <t>ethena usde</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5454795947.249228</v>
+        <v>5460568000.550032</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5453513270.19306</v>
+        <v>5460153817.440272</v>
       </c>
       <c r="H26" t="n">
-        <v>28037512.69643227</v>
+        <v>10944920.02970997</v>
       </c>
       <c r="I26" t="n">
-        <v>0.9997648533384984</v>
+        <v>0.999924150178202</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0267326338175892</v>
+        <v>0.06625039487127191</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -1772,7 +1772,7 @@
         </is>
       </c>
       <c r="M26" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="27">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Dai</t>
+          <t>dai</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1803,19 +1803,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>5362322203.308377</v>
+        <v>5362490638.167648</v>
       </c>
       <c r="H27" t="n">
-        <v>51188002.64219406</v>
+        <v>50216251.65211133</v>
       </c>
       <c r="I27" t="n">
-        <v>0.9994295841459784</v>
+        <v>0.9994609770341663</v>
       </c>
       <c r="J27" t="n">
-        <v>-0.0725441089974135</v>
+        <v>0.0248797443673742</v>
       </c>
       <c r="K27" t="n">
-        <v>0.9994614674007876</v>
+        <v>0.9994918942853382</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -1823,7 +1823,7 @@
         </is>
       </c>
       <c r="M27" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="28">
@@ -1844,7 +1844,7 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Hyperliquid</t>
+          <t>hyperliquid</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1854,19 +1854,19 @@
         <v>1000000000</v>
       </c>
       <c r="G28" t="n">
-        <v>4964076835.191276</v>
+        <v>4622853644.490722</v>
       </c>
       <c r="H28" t="n">
-        <v>31654805.44278216</v>
+        <v>24634781.19841978</v>
       </c>
       <c r="I28" t="n">
-        <v>14.86570206560966</v>
+        <v>13.84385601865264</v>
       </c>
       <c r="J28" t="n">
-        <v>-3.211181555201212</v>
+        <v>11.89512881599245</v>
       </c>
       <c r="K28" t="n">
-        <v>14.81042260160176</v>
+        <v>13.79790612052088</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -1874,13 +1874,13 @@
         </is>
       </c>
       <c r="M28" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>uniswap</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1890,48 +1890,48 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>UNI</t>
+          <t>XMR</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Uniswap</t>
+          <t>monero</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>600585117.71</v>
+        <v>18446744.07370955</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3962016088.166615</v>
+        <v>3871735613.818409</v>
       </c>
       <c r="H29" t="n">
-        <v>58049449.24290792</v>
+        <v>29614842.31871288</v>
       </c>
       <c r="I29" t="n">
-        <v>6.596926849059426</v>
+        <v>209.8872081895709</v>
       </c>
       <c r="J29" t="n">
-        <v>-7.231357994426224</v>
+        <v>1.597399774949166</v>
       </c>
       <c r="K29" t="n">
-        <v>6.719971147355709</v>
+        <v>207.782952669605</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
+          <t>http://moneroblocks.info/</t>
         </is>
       </c>
       <c r="M29" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>monero</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1941,42 +1941,42 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>XMR</t>
+          <t>UNI</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Monero</t>
+          <t>uniswap</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>18446744.07370955</v>
+        <v>600585117.71</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>3886084190.474342</v>
+        <v>3631312780.959834</v>
       </c>
       <c r="H30" t="n">
-        <v>24475579.00449825</v>
+        <v>57660860.68356299</v>
       </c>
       <c r="I30" t="n">
-        <v>210.6650460886927</v>
+        <v>6.046291647728205</v>
       </c>
       <c r="J30" t="n">
-        <v>-3.9100173014103</v>
+        <v>2.438187328442406</v>
       </c>
       <c r="K30" t="n">
-        <v>211.8084233430714</v>
+        <v>5.953959095088517</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>http://moneroblocks.info/</t>
+          <t>https://etherscan.io/token/0x1f9840a85d5af5bf1d1762f925bdaddc4201f984</t>
         </is>
       </c>
       <c r="M30" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="31">
@@ -1997,29 +1997,29 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Aptos</t>
+          <t>aptos</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>590280819.8744537</v>
+        <v>602125242.8543874</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>3376540657.261856</v>
+        <v>3139495698.322541</v>
       </c>
       <c r="H31" t="n">
-        <v>67339497.79422115</v>
+        <v>38069560.33290115</v>
       </c>
       <c r="I31" t="n">
-        <v>5.720227633315291</v>
+        <v>5.214024383763908</v>
       </c>
       <c r="J31" t="n">
-        <v>-3.79139750953263</v>
+        <v>1.066762635430684</v>
       </c>
       <c r="K31" t="n">
-        <v>5.861910494382825</v>
+        <v>5.210136665251198</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2027,7 +2027,7 @@
         </is>
       </c>
       <c r="M31" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="32">
@@ -2048,29 +2048,29 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Near Protocol</t>
+          <t>near protocol</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>1189708905</v>
+        <v>1194977992</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3053274267.033838</v>
+        <v>3125154284.982061</v>
       </c>
       <c r="H32" t="n">
-        <v>74791228.3140834</v>
+        <v>111176904.4130061</v>
       </c>
       <c r="I32" t="n">
-        <v>2.566404482812406</v>
+        <v>2.615240034464217</v>
       </c>
       <c r="J32" t="n">
-        <v>-10.29492705841271</v>
+        <v>2.037065455107594</v>
       </c>
       <c r="K32" t="n">
-        <v>2.660159393524442</v>
+        <v>2.642412332214039</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2078,13 +2078,13 @@
         </is>
       </c>
       <c r="M32" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>aave</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -2094,48 +2094,48 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>AAVE</t>
+          <t>PEPE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Aave</t>
+          <t>pepe</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>15086720.21795907</v>
+        <v>420689899653543.6</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>420690000000000</v>
       </c>
       <c r="G33" t="n">
-        <v>2825095094.359962</v>
+        <v>2981709568.951666</v>
       </c>
       <c r="H33" t="n">
-        <v>155700045.345869</v>
+        <v>362007922.4389761</v>
       </c>
       <c r="I33" t="n">
-        <v>187.2570746686877</v>
+        <v>7.0876661679e-06</v>
       </c>
       <c r="J33" t="n">
-        <v>-4.124617966567692</v>
+        <v>5.168743172299498</v>
       </c>
       <c r="K33" t="n">
-        <v>186.3511154389751</v>
+        <v>7.0157658196e-06</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
+          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
         </is>
       </c>
       <c r="M33" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>ondo-finance</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2145,48 +2145,48 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>ONDO</t>
+          <t>OKB</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Ondo</t>
+          <t>okb</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3159107529</v>
+        <v>60000000</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2788919839.120107</v>
+        <v>2775807483.351371</v>
       </c>
       <c r="H34" t="n">
-        <v>179542797.5849068</v>
+        <v>322839.4988585766</v>
       </c>
       <c r="I34" t="n">
-        <v>0.8828189017051046</v>
+        <v>46.26345805585618</v>
       </c>
       <c r="J34" t="n">
-        <v>-8.413618927171449</v>
+        <v>11.70124049938544</v>
       </c>
       <c r="K34" t="n">
-        <v>0.8815156330316947</v>
+        <v>44.65243405534353</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
+          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
         </is>
       </c>
       <c r="M34" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>ethereum-classic</t>
+          <t>ondo-finance</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2196,42 +2196,42 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ETC</t>
+          <t>ONDO</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Ethereum Classic</t>
+          <t>ondo</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>151054757.290419</v>
+        <v>3159107529</v>
       </c>
       <c r="F35" t="n">
-        <v>210700000</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>2744223159.125576</v>
+        <v>2764568194.463577</v>
       </c>
       <c r="H35" t="n">
-        <v>51106805.97182887</v>
+        <v>91561643.78445819</v>
       </c>
       <c r="I35" t="n">
-        <v>18.16707535962944</v>
+        <v>0.8751105079790328</v>
       </c>
       <c r="J35" t="n">
-        <v>-9.207925330880879</v>
+        <v>5.257085198535533</v>
       </c>
       <c r="K35" t="n">
-        <v>18.48920412614936</v>
+        <v>0.8633136822917911</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
-          <t>http://gastracker.io/</t>
+          <t>https://etherscan.io/token/0xfAbA6f8e4a5E8Ab82F62fe7C39859FA577269BE3</t>
         </is>
       </c>
       <c r="M35" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="36">
@@ -2252,29 +2252,29 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Internet Computer</t>
+          <t>internet computer</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>481422036.1042418</v>
+        <v>481407619.8388466</v>
       </c>
       <c r="F36" t="n">
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2656543250.894203</v>
+        <v>2724692055.821896</v>
       </c>
       <c r="H36" t="n">
-        <v>29004566.66949841</v>
+        <v>21046461.243368</v>
       </c>
       <c r="I36" t="n">
-        <v>5.518117268564301</v>
+        <v>5.659844056340445</v>
       </c>
       <c r="J36" t="n">
-        <v>-6.921576797958951</v>
+        <v>4.413045024719451</v>
       </c>
       <c r="K36" t="n">
-        <v>5.596155956841538</v>
+        <v>5.59509427078073</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="M36" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>okb</t>
+          <t>ethereum-classic</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2298,48 +2298,48 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ETC</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>OKB</t>
+          <t>ethereum classic</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>60000000</v>
+        <v>151118931.3494495</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>210700000</v>
       </c>
       <c r="G37" t="n">
-        <v>2542309995.463114</v>
+        <v>2724382311.253462</v>
       </c>
       <c r="H37" t="n">
-        <v>217016.8680476357</v>
+        <v>38392102.33667053</v>
       </c>
       <c r="I37" t="n">
-        <v>42.37183325771857</v>
+        <v>18.02806760824401</v>
       </c>
       <c r="J37" t="n">
-        <v>-3.104289033210244</v>
+        <v>0.8096739844268226</v>
       </c>
       <c r="K37" t="n">
-        <v>42.13311875168611</v>
+        <v>18.11246828568202</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x75231f58b43240c9718dd58b4967c5114342a86c</t>
+          <t>http://gastracker.io/</t>
         </is>
       </c>
       <c r="M37" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>pepe</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2349,42 +2349,42 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>PEPE</t>
+          <t>AAVE</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Pepe</t>
+          <t>aave</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>420689899653543.6</v>
+        <v>15088662.60129862</v>
       </c>
       <c r="F38" t="n">
-        <v>420690000000000</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2526155080.021627</v>
+        <v>2621314642.402391</v>
       </c>
       <c r="H38" t="n">
-        <v>276831181.8047165</v>
+        <v>148856587.7988883</v>
       </c>
       <c r="I38" t="n">
-        <v>6.0047913727e-06</v>
+        <v>173.7274344100441</v>
       </c>
       <c r="J38" t="n">
-        <v>-8.966819364958434</v>
+        <v>6.825849862433325</v>
       </c>
       <c r="K38" t="n">
-        <v>6.1346145055e-06</v>
+        <v>169.1341143052763</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x6982508145454ce325ddbe47a25d4ec3d2311933</t>
+          <t>https://etherscan.io/token/0x80fB784B7eD66730e8b1DBd9820aFD29931aab03</t>
         </is>
       </c>
       <c r="M38" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="39">
@@ -2405,29 +2405,29 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Trump Official</t>
+          <t>trump official</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>199999532.823472</v>
+        <v>199999528.693145</v>
       </c>
       <c r="F39" t="n">
         <v>999999993.45</v>
       </c>
       <c r="G39" t="n">
-        <v>2252508196.759681</v>
+        <v>2425854298.71376</v>
       </c>
       <c r="H39" t="n">
-        <v>47148141.17685272</v>
+        <v>309862481.3448384</v>
       </c>
       <c r="I39" t="n">
-        <v>11.26256729183382</v>
+        <v>12.12930007668016</v>
       </c>
       <c r="J39" t="n">
-        <v>-7.965726813536341</v>
+        <v>10.62812831192716</v>
       </c>
       <c r="K39" t="n">
-        <v>11.12463737940481</v>
+        <v>11.72257717981184</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2435,13 +2435,13 @@
         </is>
       </c>
       <c r="M39" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>vechain</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2451,48 +2451,48 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>VET</t>
+          <t>TAO</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>VeChain</t>
+          <t>bittensor</t>
         </is>
       </c>
       <c r="E40" t="n">
-        <v>85985041177</v>
+        <v>8456364</v>
       </c>
       <c r="F40" t="n">
-        <v>86712634466</v>
+        <v>21000000</v>
       </c>
       <c r="G40" t="n">
-        <v>2151870473.157563</v>
+        <v>2189128057.527739</v>
       </c>
       <c r="H40" t="n">
-        <v>29846415.52418021</v>
+        <v>65416863.69021632</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0250261027232393</v>
+        <v>258.8734422415756</v>
       </c>
       <c r="J40" t="n">
-        <v>-7.104047771306701</v>
+        <v>8.460274558278842</v>
       </c>
       <c r="K40" t="n">
-        <v>0.0256925473608792</v>
+        <v>250.4284000453394</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>https://explore.veforge.com/</t>
+          <t>https://bittensor.com/scan</t>
         </is>
       </c>
       <c r="M40" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2502,42 +2502,42 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>TAO</t>
+          <t>VET</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Bittensor</t>
+          <t>vechain</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>8447703</v>
+        <v>85985041177</v>
       </c>
       <c r="F41" t="n">
-        <v>21000000</v>
+        <v>86712634466</v>
       </c>
       <c r="G41" t="n">
-        <v>2119142075.113735</v>
+        <v>2130214351.196401</v>
       </c>
       <c r="H41" t="n">
-        <v>87811316.18009411</v>
+        <v>26267854.18503509</v>
       </c>
       <c r="I41" t="n">
-        <v>250.8542351824792</v>
+        <v>0.0247742435432619</v>
       </c>
       <c r="J41" t="n">
-        <v>-7.999757604689283</v>
+        <v>4.198987159480402</v>
       </c>
       <c r="K41" t="n">
-        <v>255.6582195772952</v>
+        <v>0.0241817895854277</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>https://bittensor.com/scan</t>
+          <t>https://explore.veforge.com/</t>
         </is>
       </c>
       <c r="M41" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="42">
@@ -2558,7 +2558,7 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Cronos</t>
+          <t>cronos</t>
         </is>
       </c>
       <c r="E42" t="n">
@@ -2568,19 +2568,19 @@
         <v>30263013692</v>
       </c>
       <c r="G42" t="n">
-        <v>2078109645.199654</v>
+        <v>2099385246.311</v>
       </c>
       <c r="H42" t="n">
-        <v>15930241.62793128</v>
+        <v>6951943.925929272</v>
       </c>
       <c r="I42" t="n">
-        <v>0.08225897632544631</v>
+        <v>0.083101140343197</v>
       </c>
       <c r="J42" t="n">
-        <v>-7.035952007593495</v>
+        <v>2.459572198964997</v>
       </c>
       <c r="K42" t="n">
-        <v>0.0861856370691734</v>
+        <v>0.0826939617634698</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2588,13 +2588,13 @@
         </is>
       </c>
       <c r="M42" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>polygon-ecosystem-token</t>
+          <t>first-digital-usd</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2604,48 +2604,48 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>FDUSD</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>POL (prev. MATIC)</t>
+          <t>first digital usd</t>
         </is>
       </c>
       <c r="E43" t="n">
-        <v>8589324396.393211</v>
+        <v>2078518049.61862</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1941055074.326228</v>
+        <v>2076041358.317752</v>
       </c>
       <c r="H43" t="n">
-        <v>33418076.16061263</v>
+        <v>398886423.0873972</v>
       </c>
       <c r="I43" t="n">
-        <v>0.2259846042304918</v>
+        <v>0.998808434066126</v>
       </c>
       <c r="J43" t="n">
-        <v>-7.709695433659238</v>
+        <v>0.0482214463200198</v>
       </c>
       <c r="K43" t="n">
-        <v>0.2293011276072666</v>
+        <v>0.9985659267190972</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M43" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>filecoin</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2655,48 +2655,48 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FIL</t>
+          <t>KAS</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Filecoin</t>
+          <t>kaspa</t>
         </is>
       </c>
       <c r="E44" t="n">
-        <v>642926946</v>
+        <v>25859054634.3746</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>28704026601</v>
       </c>
       <c r="G44" t="n">
-        <v>1839804151.951607</v>
+        <v>2045406616.509926</v>
       </c>
       <c r="H44" t="n">
-        <v>74632827.32062118</v>
+        <v>27802948.60948183</v>
       </c>
       <c r="I44" t="n">
-        <v>2.861606848799906</v>
+        <v>0.07909827506961351</v>
       </c>
       <c r="J44" t="n">
-        <v>-7.53695460285296</v>
+        <v>11.67225924106912</v>
       </c>
       <c r="K44" t="n">
-        <v>2.898324921874151</v>
+        <v>0.0754150298834368</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>https://protocol.ai</t>
+          <t>https://explorer.kaspa.org/</t>
         </is>
       </c>
       <c r="M44" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2706,48 +2706,48 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ALGO</t>
+          <t>TIA</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Algorand</t>
+          <t>celestia</t>
         </is>
       </c>
       <c r="E45" t="n">
-        <v>8475953510.172238</v>
+        <v>561379525.355637</v>
       </c>
       <c r="F45" t="n">
-        <v>10000000000</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1747963632.215832</v>
+        <v>1980971935.541834</v>
       </c>
       <c r="H45" t="n">
-        <v>50266430.88299193</v>
+        <v>35580761.70106801</v>
       </c>
       <c r="I45" t="n">
-        <v>0.2062261939164779</v>
+        <v>3.528757010307559</v>
       </c>
       <c r="J45" t="n">
-        <v>-7.464842185629027</v>
+        <v>-2.496148949746897</v>
       </c>
       <c r="K45" t="n">
-        <v>0.210871966688429</v>
+        <v>3.610972419831866</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>https://algoexplorer.io/</t>
+          <t>https://www.mintscan.io/celestia</t>
         </is>
       </c>
       <c r="M45" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>gatetoken</t>
+          <t>polygon-ecosystem-token</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2757,48 +2757,48 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>GT</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>GateToken</t>
+          <t>pol (prev. matic)</t>
         </is>
       </c>
       <c r="E46" t="n">
-        <v>85831054.94617856</v>
+        <v>8593960040.821898</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1734325592.744144</v>
+        <v>1850662621.086017</v>
       </c>
       <c r="H46" t="n">
-        <v>22164768.22106624</v>
+        <v>24963163.88762639</v>
       </c>
       <c r="I46" t="n">
-        <v>20.20627142275806</v>
+        <v>0.2153445690107055</v>
       </c>
       <c r="J46" t="n">
-        <v>-4.83932534200062</v>
+        <v>2.023793910018714</v>
       </c>
       <c r="K46" t="n">
-        <v>20.12733684626336</v>
+        <v>0.2145886245135782</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://etherscan.io/token/0x455e53CBB86018Ac2B8092FdCd39d8444aFFC3F6</t>
         </is>
       </c>
       <c r="M46" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>celestia</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2808,48 +2808,48 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>TIA</t>
+          <t>FIL</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Celestia</t>
+          <t>filecoin</t>
         </is>
       </c>
       <c r="E47" t="n">
-        <v>555343072.222084</v>
+        <v>643910158</v>
       </c>
       <c r="F47" t="n">
         <v>0</v>
       </c>
       <c r="G47" t="n">
-        <v>1724918204.065232</v>
+        <v>1849446999.224767</v>
       </c>
       <c r="H47" t="n">
-        <v>49753084.40875505</v>
+        <v>57544244.60141468</v>
       </c>
       <c r="I47" t="n">
-        <v>3.106040734717997</v>
+        <v>2.872212802123192</v>
       </c>
       <c r="J47" t="n">
-        <v>-5.26687038678797</v>
+        <v>4.464620649086947</v>
       </c>
       <c r="K47" t="n">
-        <v>3.192629548168364</v>
+        <v>2.834532851325701</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/celestia</t>
+          <t>https://protocol.ai</t>
         </is>
       </c>
       <c r="M47" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>kaspa</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2859,48 +2859,48 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>KAS</t>
+          <t>GT</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Kaspa</t>
+          <t>gatetoken</t>
         </is>
       </c>
       <c r="E48" t="n">
-        <v>25832738640.76165</v>
+        <v>85831192.49018952</v>
       </c>
       <c r="F48" t="n">
-        <v>28704026601</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1624857594.557098</v>
+        <v>1817521937.555674</v>
       </c>
       <c r="H48" t="n">
-        <v>38857748.83126124</v>
+        <v>24343664.43545901</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0628991612988808</v>
+        <v>21.17554102214549</v>
       </c>
       <c r="J48" t="n">
-        <v>-11.05189458244461</v>
+        <v>5.531848744537263</v>
       </c>
       <c r="K48" t="n">
-        <v>0.0647558746440783</v>
+        <v>20.84839914459154</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>https://explorer.kaspa.org/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M48" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2910,42 +2910,42 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ARB</t>
+          <t>ALGO</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Arbitrum</t>
+          <t>algorand</t>
         </is>
       </c>
       <c r="E49" t="n">
-        <v>4419312625</v>
+        <v>8497818639.175444</v>
       </c>
       <c r="F49" t="n">
-        <v>0</v>
+        <v>10000000000</v>
       </c>
       <c r="G49" t="n">
-        <v>1572936345.856708</v>
+        <v>1692674861.890055</v>
       </c>
       <c r="H49" t="n">
-        <v>52649525.40573921</v>
+        <v>37506694.69177647</v>
       </c>
       <c r="I49" t="n">
-        <v>0.3559233028590521</v>
+        <v>0.1991893371419724</v>
       </c>
       <c r="J49" t="n">
-        <v>-9.201984625922602</v>
+        <v>2.004938941119545</v>
       </c>
       <c r="K49" t="n">
-        <v>0.3612117355086463</v>
+        <v>0.1987037866711225</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
+          <t>https://algoexplorer.io/</t>
         </is>
       </c>
       <c r="M49" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="50">
@@ -2966,7 +2966,7 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Cosmos</t>
+          <t>cosmos</t>
         </is>
       </c>
       <c r="E50" t="n">
@@ -2976,19 +2976,19 @@
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1529102202.747727</v>
+        <v>1676225120.808069</v>
       </c>
       <c r="H50" t="n">
-        <v>53346851.06524988</v>
+        <v>56716292.69833041</v>
       </c>
       <c r="I50" t="n">
-        <v>3.911405518120709</v>
+        <v>4.287742294373578</v>
       </c>
       <c r="J50" t="n">
-        <v>-4.433754557452809</v>
+        <v>9.934090955808191</v>
       </c>
       <c r="K50" t="n">
-        <v>3.899911837247242</v>
+        <v>4.08176287282482</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -2996,13 +2996,13 @@
         </is>
       </c>
       <c r="M50" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>dexe</t>
+          <t>render</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -3012,48 +3012,48 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>DEXE</t>
+          <t>RENDER</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>DeXe</t>
+          <t>render</t>
         </is>
       </c>
       <c r="E51" t="n">
-        <v>83733347.49799643</v>
+        <v>517716590.0562826</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>644168762</v>
       </c>
       <c r="G51" t="n">
-        <v>1462866416.927535</v>
+        <v>1643596978.172058</v>
       </c>
       <c r="H51" t="n">
-        <v>1830539.711129508</v>
+        <v>37424883.35411328</v>
       </c>
       <c r="I51" t="n">
-        <v>17.47053546333542</v>
+        <v>3.174704094364404</v>
       </c>
       <c r="J51" t="n">
-        <v>-7.000778561267787</v>
+        <v>6.966627906435081</v>
       </c>
       <c r="K51" t="n">
-        <v>18.23825554516767</v>
+        <v>3.093932145722137</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M51" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>kucoin-token</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -3063,48 +3063,48 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>KCS</t>
+          <t>ARB</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>KuCoin Token</t>
+          <t>arbitrum</t>
         </is>
       </c>
       <c r="E52" t="n">
-        <v>122606967.8513356</v>
+        <v>4419312625</v>
       </c>
       <c r="F52" t="n">
-        <v>200000000</v>
+        <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1372297767.89804</v>
+        <v>1589931289.614613</v>
       </c>
       <c r="H52" t="n">
-        <v>736388.0312253907</v>
+        <v>52219565.37970529</v>
       </c>
       <c r="I52" t="n">
-        <v>11.1926572522533</v>
+        <v>0.3597689108076198</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.977576267407949</v>
+        <v>4.581885986354976</v>
       </c>
       <c r="K52" t="n">
-        <v>11.20730892653344</v>
+        <v>0.3550140518692204</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
+          <t>https://arbiscan.io/token/0x912CE59144191C1204E64559FE8253a0e49E6548</t>
         </is>
       </c>
       <c r="M52" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>fetch</t>
+          <t>story-protocol</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3114,48 +3114,48 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>FET</t>
+          <t>IP</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Artificial Superintelligence Alliance</t>
+          <t>story</t>
         </is>
       </c>
       <c r="E53" t="n">
-        <v>2520000000</v>
+        <v>250000000</v>
       </c>
       <c r="F53" t="n">
-        <v>2630547141</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>1357027231.741341</v>
+        <v>1483088160.345798</v>
       </c>
       <c r="H53" t="n">
-        <v>76386003.92266642</v>
+        <v>39588271.58007797</v>
       </c>
       <c r="I53" t="n">
-        <v>0.5385028697386274</v>
+        <v>5.932352641383191</v>
       </c>
       <c r="J53" t="n">
-        <v>-9.125382929269524</v>
+        <v>4.13998251768685</v>
       </c>
       <c r="K53" t="n">
-        <v>0.5365952860585707</v>
+        <v>5.934168879292675</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
+          <t>www.storyscan.xyz</t>
         </is>
       </c>
       <c r="M53" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>jupiter</t>
+          <t>fantom</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3165,48 +3165,48 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>JUP</t>
+          <t>S</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Jupiter</t>
+          <t>sonic (prev. ftm)</t>
         </is>
       </c>
       <c r="E54" t="n">
-        <v>2690911111.1</v>
+        <v>2803634835.526593</v>
       </c>
       <c r="F54" t="n">
-        <v>3000000000</v>
+        <v>3175000000</v>
       </c>
       <c r="G54" t="n">
-        <v>1339602423.67723</v>
+        <v>1477240028.534009</v>
       </c>
       <c r="H54" t="n">
-        <v>36127424.42532434</v>
+        <v>119245327.9638553</v>
       </c>
       <c r="I54" t="n">
-        <v>0.4978248512748615</v>
+        <v>0.5269017240815335</v>
       </c>
       <c r="J54" t="n">
-        <v>-8.959572641265105</v>
+        <v>9.274686746280924</v>
       </c>
       <c r="K54" t="n">
-        <v>0.515288082265409</v>
+        <v>0.5198997989631328</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
+          <t>sonicscan.org</t>
         </is>
       </c>
       <c r="M54" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>fantom</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3216,48 +3216,48 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>FTM</t>
+          <t>DEXE</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Fantom</t>
+          <t>dexe</t>
         </is>
       </c>
       <c r="E55" t="n">
-        <v>2803634835.526593</v>
+        <v>83733347.49799643</v>
       </c>
       <c r="F55" t="n">
-        <v>3175000000</v>
+        <v>0</v>
       </c>
       <c r="G55" t="n">
-        <v>1260076555.492265</v>
+        <v>1447435600.318844</v>
       </c>
       <c r="H55" t="n">
-        <v>359676.1023667609</v>
+        <v>12885226.95273928</v>
       </c>
       <c r="I55" t="n">
-        <v>0.4494438931650636</v>
+        <v>17.2862502643105</v>
       </c>
       <c r="J55" t="n">
-        <v>-10.2787959876137</v>
+        <v>-0.5720287374109895</v>
       </c>
       <c r="K55" t="n">
-        <v>0</v>
+        <v>17.3302343212212</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4e15361fd6b4bb609fa63c81a2be19d873717870</t>
+          <t>https://etherscan.io/token/0xde4EE8057785A7e8e800Db58F9784845A5C2Cbd6</t>
         </is>
       </c>
       <c r="M55" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>xinfin-network</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3267,48 +3267,48 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>XDC</t>
+          <t>JUP</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>XDC Network</t>
+          <t>jupiter</t>
         </is>
       </c>
       <c r="E56" t="n">
-        <v>15692654414.55</v>
+        <v>2690911111.1</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>3000000000</v>
       </c>
       <c r="G56" t="n">
-        <v>1098300806.010927</v>
+        <v>1424294873.247077</v>
       </c>
       <c r="H56" t="n">
-        <v>2132428.112228772</v>
+        <v>20183274.61839966</v>
       </c>
       <c r="I56" t="n">
-        <v>0.0699882108531364</v>
+        <v>0.5292983730944751</v>
       </c>
       <c r="J56" t="n">
-        <v>-6.744212949068215</v>
+        <v>5.428760363981339</v>
       </c>
       <c r="K56" t="n">
-        <v>0.0717697318614908</v>
+        <v>0.5196952352170031</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
+          <t>https://solscan.io/token/JUPyiwrYJFskUPiHa7hkeR8VUtAeFoSYbKedZNsDvCN</t>
         </is>
       </c>
       <c r="M56" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>maker</t>
+          <t>kucoin-token</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3318,48 +3318,48 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>MKR</t>
+          <t>KCS</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Maker</t>
+          <t>kucoin token</t>
         </is>
       </c>
       <c r="E57" t="n">
-        <v>852195.01797221</v>
+        <v>122561753.8513356</v>
       </c>
       <c r="F57" t="n">
-        <v>1005577</v>
+        <v>200000000</v>
       </c>
       <c r="G57" t="n">
-        <v>1027167468.43375</v>
+        <v>1358017854.816869</v>
       </c>
       <c r="H57" t="n">
-        <v>37109508.13459335</v>
+        <v>582371.6710070141</v>
       </c>
       <c r="I57" t="n">
-        <v>1205.319729371201</v>
+        <v>11.08027432818978</v>
       </c>
       <c r="J57" t="n">
-        <v>-12.02497792054295</v>
+        <v>1.375073483564824</v>
       </c>
       <c r="K57" t="n">
-        <v>1273.614824418672</v>
+        <v>11.04045386552056</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Maker</t>
+          <t>https://etherscan.io/token/0xf34960d9d60be18cc1d5afc1a6f012a723a28811</t>
         </is>
       </c>
       <c r="M57" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>injective-protocol</t>
+          <t>fetch</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3369,48 +3369,48 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>INJ</t>
+          <t>FET</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Injective</t>
+          <t>artificial superintelligence alliance</t>
         </is>
       </c>
       <c r="E58" t="n">
-        <v>98970935.41</v>
+        <v>2520000000</v>
       </c>
       <c r="F58" t="n">
-        <v>100000000</v>
+        <v>2630547141</v>
       </c>
       <c r="G58" t="n">
-        <v>967975236.3214872</v>
+        <v>1303581799.534159</v>
       </c>
       <c r="H58" t="n">
-        <v>81761671.16197415</v>
+        <v>44311359.86981674</v>
       </c>
       <c r="I58" t="n">
-        <v>9.780398985939897</v>
+        <v>0.5172943648945075</v>
       </c>
       <c r="J58" t="n">
-        <v>-12.21049992299074</v>
+        <v>4.099252379787584</v>
       </c>
       <c r="K58" t="n">
-        <v>10.07168487741176</v>
+        <v>0.509479537389383</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
+          <t>https://etherscan.io/token/0x1d287cc25dad7ccaf76a26bc660c5f7c8e2a05bd</t>
         </is>
       </c>
       <c r="M58" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>stacks</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3420,48 +3420,48 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>STX</t>
+          <t>ENA</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Stacks</t>
+          <t>ethena</t>
         </is>
       </c>
       <c r="E59" t="n">
-        <v>1516227294.50364</v>
+        <v>3223437500</v>
       </c>
       <c r="F59" t="n">
-        <v>1818000000</v>
+        <v>0</v>
       </c>
       <c r="G59" t="n">
-        <v>952841853.6774261</v>
+        <v>1131952450.004013</v>
       </c>
       <c r="H59" t="n">
-        <v>12091388.72945662</v>
+        <v>111586255.746358</v>
       </c>
       <c r="I59" t="n">
-        <v>0.6284294295001155</v>
+        <v>0.3511631449358062</v>
       </c>
       <c r="J59" t="n">
-        <v>-8.185300512572356</v>
+        <v>3.290620288968538</v>
       </c>
       <c r="K59" t="n">
-        <v>0.6430901288744574</v>
+        <v>0.3494023791129575</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>https://explorer.stacks.co/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M59" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>quant</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3471,48 +3471,48 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>QNT</t>
+          <t>MOVE</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Quant</t>
+          <t>movement</t>
         </is>
       </c>
       <c r="E60" t="n">
-        <v>12072738</v>
+        <v>2400000000</v>
       </c>
       <c r="F60" t="n">
-        <v>14881364</v>
+        <v>10000000000</v>
       </c>
       <c r="G60" t="n">
-        <v>915336081.2292492</v>
+        <v>1093029836.550683</v>
       </c>
       <c r="H60" t="n">
-        <v>13806431.49284199</v>
+        <v>46412606.88354787</v>
       </c>
       <c r="I60" t="n">
-        <v>75.81843333544131</v>
+        <v>0.4554290985627845</v>
       </c>
       <c r="J60" t="n">
-        <v>-10.57700450110986</v>
+        <v>1.91887075780387</v>
       </c>
       <c r="K60" t="n">
-        <v>78.3464217000606</v>
+        <v>0.453549450613858</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M60" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>lido-dao</t>
+          <t>xinfin-network</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3522,48 +3522,48 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>LDO</t>
+          <t>XDC</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Lido DAO</t>
+          <t>xdc network</t>
         </is>
       </c>
       <c r="E61" t="n">
-        <v>897602695.8719101</v>
+        <v>15692654414.55</v>
       </c>
       <c r="F61" t="n">
         <v>0</v>
       </c>
       <c r="G61" t="n">
-        <v>909341696.7598637</v>
+        <v>1066483123.779868</v>
       </c>
       <c r="H61" t="n">
-        <v>8598866.791512011</v>
+        <v>21050820.58742903</v>
       </c>
       <c r="I61" t="n">
-        <v>1.013078170266134</v>
+        <v>0.0679606582549247</v>
       </c>
       <c r="J61" t="n">
-        <v>-3.464126472880133</v>
+        <v>2.288481660392889</v>
       </c>
       <c r="K61" t="n">
-        <v>1.025607423126411</v>
+        <v>0.0675299627842678</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
+          <t>https://etherscan.io/token/0x41ab1b6fcbb2fa9dced81acbdec13ea6315f2bf2</t>
         </is>
       </c>
       <c r="M61" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>theta</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3573,48 +3573,48 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>MKR</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>THETA</t>
+          <t>maker</t>
         </is>
       </c>
       <c r="E62" t="n">
-        <v>1000000000</v>
+        <v>847988.21482292</v>
       </c>
       <c r="F62" t="n">
-        <v>1000000000</v>
+        <v>1000000</v>
       </c>
       <c r="G62" t="n">
-        <v>904255904.675777</v>
+        <v>995779670.4248834</v>
       </c>
       <c r="H62" t="n">
-        <v>22727193.62527917</v>
+        <v>30658964.42528624</v>
       </c>
       <c r="I62" t="n">
-        <v>0.904255904675777</v>
+        <v>1174.284799032055</v>
       </c>
       <c r="J62" t="n">
-        <v>-9.704096306860745</v>
+        <v>3.172103191520827</v>
       </c>
       <c r="K62" t="n">
-        <v>0.931113328539196</v>
+        <v>1166.06421780827</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>https://explorer.thetatoken.org/</t>
+          <t>https://etherscan.io/token/Maker</t>
         </is>
       </c>
       <c r="M62" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>the-graph</t>
+          <t>injective-protocol</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3624,48 +3624,48 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>GRT</t>
+          <t>INJ</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>The Graph</t>
+          <t>injective</t>
         </is>
       </c>
       <c r="E63" t="n">
-        <v>9548531509.165474</v>
+        <v>98970935.41</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="G63" t="n">
-        <v>894091156.9864477</v>
+        <v>988597322.8342956</v>
       </c>
       <c r="H63" t="n">
-        <v>15072594.92066292</v>
+        <v>60843009.42617881</v>
       </c>
       <c r="I63" t="n">
-        <v>0.0936365090410211</v>
+        <v>9.988764062286592</v>
       </c>
       <c r="J63" t="n">
-        <v>-6.892054239463257</v>
+        <v>7.668398249727038</v>
       </c>
       <c r="K63" t="n">
-        <v>0.09415112110264499</v>
+        <v>9.797167996879539</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
+          <t>https://etherscan.io/token/0xe28b3b32b6c345a34ff64674606124dd5aceca30</t>
         </is>
       </c>
       <c r="M63" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>eos</t>
+          <t>immutable-x</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3675,48 +3675,48 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>IMX</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>EOS</t>
+          <t>immutable x</t>
         </is>
       </c>
       <c r="E64" t="n">
-        <v>1551425752.4039</v>
+        <v>1768317543.39</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>2000000000</v>
       </c>
       <c r="G64" t="n">
-        <v>768572140.5820264</v>
+        <v>979124102.7380431</v>
       </c>
       <c r="H64" t="n">
-        <v>39031859.78237414</v>
+        <v>9764913.142595476</v>
       </c>
       <c r="I64" t="n">
-        <v>0.4953973075354337</v>
+        <v>0.5537037770156299</v>
       </c>
       <c r="J64" t="n">
-        <v>-6.957258937132985</v>
+        <v>7.22078006642519</v>
       </c>
       <c r="K64" t="n">
-        <v>0.499567077764265</v>
+        <v>0.5334683395044759</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
-          <t>https://bloks.io/</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M64" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>tezos</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3726,48 +3726,48 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>XTZ</t>
+          <t>STX</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Tezos</t>
+          <t>stacks</t>
         </is>
       </c>
       <c r="E65" t="n">
-        <v>1033747407.389487</v>
+        <v>1516958061.52832</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>1818000000</v>
       </c>
       <c r="G65" t="n">
-        <v>711868583.4541792</v>
+        <v>974045807.1656328</v>
       </c>
       <c r="H65" t="n">
-        <v>6114952.025153479</v>
+        <v>9442987.319231335</v>
       </c>
       <c r="I65" t="n">
-        <v>0.6886291354789023</v>
+        <v>0.6421046381363316</v>
       </c>
       <c r="J65" t="n">
-        <v>-6.340236388086621</v>
+        <v>4.599065855847644</v>
       </c>
       <c r="K65" t="n">
-        <v>0.7046237483512103</v>
+        <v>0.6382442328864766</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>https://tzkt.io/</t>
+          <t>https://explorer.stacks.co/</t>
         </is>
       </c>
       <c r="M65" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>nexo</t>
+          <t>worldcoin-org</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3777,48 +3777,48 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>NEXO</t>
+          <t>WLD</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Nexo</t>
+          <t>worldcoin</t>
         </is>
       </c>
       <c r="E66" t="n">
-        <v>646145839.5746847</v>
+        <v>1106042482.43703</v>
       </c>
       <c r="F66" t="n">
         <v>0</v>
       </c>
       <c r="G66" t="n">
-        <v>702536273.9261887</v>
+        <v>965339036.9578093</v>
       </c>
       <c r="H66" t="n">
-        <v>809138.1557322528</v>
+        <v>46723838.65249291</v>
       </c>
       <c r="I66" t="n">
-        <v>1.087271991704879</v>
+        <v>0.8727865812448745</v>
       </c>
       <c r="J66" t="n">
-        <v>-5.723701956992897</v>
+        <v>3.646614224625878</v>
       </c>
       <c r="K66" t="n">
-        <v>1.106319681148082</v>
+        <v>0.8622539104698175</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M66" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>the-sandbox</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3828,48 +3828,48 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>SAND</t>
+          <t>SEI</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>The Sandbox</t>
+          <t>sei</t>
         </is>
       </c>
       <c r="E67" t="n">
-        <v>2469357126.223322</v>
+        <v>4657499999</v>
       </c>
       <c r="F67" t="n">
         <v>0</v>
       </c>
       <c r="G67" t="n">
-        <v>677897900.4404595</v>
+        <v>954117004.9721038</v>
       </c>
       <c r="H67" t="n">
-        <v>20061694.50425494</v>
+        <v>62961300.64970271</v>
       </c>
       <c r="I67" t="n">
-        <v>0.2745240424082556</v>
+        <v>0.2048560397588749</v>
       </c>
       <c r="J67" t="n">
-        <v>-8.089374280060433</v>
+        <v>7.553770196514381</v>
       </c>
       <c r="K67" t="n">
-        <v>0.2826244634809218</v>
+        <v>0.2001066755405891</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M67" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>iota</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3879,48 +3879,48 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>FLR</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>IOTA</t>
+          <t>flare</t>
         </is>
       </c>
       <c r="E68" t="n">
-        <v>3669672848</v>
+        <v>60983663777.01</v>
       </c>
       <c r="F68" t="n">
         <v>0</v>
       </c>
       <c r="G68" t="n">
-        <v>658863000.4114799</v>
+        <v>916063774.721293</v>
       </c>
       <c r="H68" t="n">
-        <v>16232865.7468512</v>
+        <v>6964832.024222584</v>
       </c>
       <c r="I68" t="n">
-        <v>0.1795427079475396</v>
+        <v>0.0150214617814851</v>
       </c>
       <c r="J68" t="n">
-        <v>-7.397635847377722</v>
+        <v>6.000037087855146</v>
       </c>
       <c r="K68" t="n">
-        <v>0.1809654502051734</v>
+        <v>0.0149973874300307</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>https://thetangle.org/</t>
+          <t>https://flare-explorer.flare.network/</t>
         </is>
       </c>
       <c r="M68" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>bitcoin-sv</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3930,48 +3930,48 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>BSV</t>
+          <t>QNT</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Bitcoin SV</t>
+          <t>quant</t>
         </is>
       </c>
       <c r="E69" t="n">
-        <v>19835500</v>
+        <v>12072738</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>14881364</v>
       </c>
       <c r="G69" t="n">
-        <v>646946927.5695741</v>
+        <v>916025904.2805326</v>
       </c>
       <c r="H69" t="n">
-        <v>11064679.17511933</v>
+        <v>9139066.300843412</v>
       </c>
       <c r="I69" t="n">
-        <v>32.61560976882731</v>
+        <v>75.87557224223143</v>
       </c>
       <c r="J69" t="n">
-        <v>-7.748785748470949</v>
+        <v>1.828975340529672</v>
       </c>
       <c r="K69" t="n">
-        <v>33.21734232205623</v>
+        <v>75.96028401513901</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>https://bsvexplorer.io/</t>
+          <t>https://etherscan.io/token/0x4a220e6096b25eadb88358cb44068a3248254675</t>
         </is>
       </c>
       <c r="M69" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>flow</t>
+          <t>the-graph</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3981,48 +3981,48 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>FLOW</t>
+          <t>GRT</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Flow</t>
+          <t>the graph</t>
         </is>
       </c>
       <c r="E70" t="n">
-        <v>1568120578.779074</v>
+        <v>9548531509.165474</v>
       </c>
       <c r="F70" t="n">
         <v>0</v>
       </c>
       <c r="G70" t="n">
-        <v>625191335.0574913</v>
+        <v>900775900.5445309</v>
       </c>
       <c r="H70" t="n">
-        <v>9666630.030909132</v>
+        <v>9196532.716641206</v>
       </c>
       <c r="I70" t="n">
-        <v>0.398688304661023</v>
+        <v>0.09433658983896021</v>
       </c>
       <c r="J70" t="n">
-        <v>-7.046894010074452</v>
+        <v>6.085521987495271</v>
       </c>
       <c r="K70" t="n">
-        <v>0.4048391376876125</v>
+        <v>0.0926867831433961</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>https://flowscan.org/</t>
+          <t>https://etherscan.io/token/0xc944e90c64b2c07662a292be6244bdf05cda44a7</t>
         </is>
       </c>
       <c r="M70" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>gala</t>
+          <t>theta</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -4032,48 +4032,48 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>GALA</t>
+          <t>THETA</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Gala</t>
+          <t>theta network</t>
         </is>
       </c>
       <c r="E71" t="n">
-        <v>37870158415.56214</v>
+        <v>1000000000</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>1000000000</v>
       </c>
       <c r="G71" t="n">
-        <v>616710576.8964661</v>
+        <v>892421605.0569862</v>
       </c>
       <c r="H71" t="n">
-        <v>29835017.03890375</v>
+        <v>15463695.26038864</v>
       </c>
       <c r="I71" t="n">
-        <v>0.0162848692136191</v>
+        <v>0.8924216050569863</v>
       </c>
       <c r="J71" t="n">
-        <v>-6.797495162386297</v>
+        <v>3.079538190377134</v>
       </c>
       <c r="K71" t="n">
-        <v>0.0165544887882865</v>
+        <v>0.8810671743303429</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
+          <t>https://explorer.thetatoken.org/</t>
         </is>
       </c>
       <c r="M71" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>telcoin</t>
+          <t>lido-dao</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -4083,48 +4083,48 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>TEL</t>
+          <t>LDO</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Telcoin</t>
+          <t>lido dao</t>
         </is>
       </c>
       <c r="E72" t="n">
-        <v>93880083810.97</v>
+        <v>897146051.8587133</v>
       </c>
       <c r="F72" t="n">
-        <v>100000000000</v>
+        <v>0</v>
       </c>
       <c r="G72" t="n">
-        <v>596698742.1152153</v>
+        <v>859038811.5712079</v>
       </c>
       <c r="H72" t="n">
-        <v>6768857.907144741</v>
+        <v>34735454.0783473</v>
       </c>
       <c r="I72" t="n">
-        <v>0.0063559672924524</v>
+        <v>0.9575239280064216</v>
       </c>
       <c r="J72" t="n">
-        <v>-12.31674896867794</v>
+        <v>6.290160943238125</v>
       </c>
       <c r="K72" t="n">
-        <v>0.0064730130921827</v>
+        <v>0.9336412686858604</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
+          <t>https://etherscan.io/token/0x5a98fcbea516cf06857215779fd812ca3bef1b32</t>
         </is>
       </c>
       <c r="M72" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>neo</t>
+          <t>bonk1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4134,48 +4134,48 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>NEO</t>
+          <t>BONK</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Neo</t>
+          <t>bonk</t>
         </is>
       </c>
       <c r="E73" t="n">
-        <v>70538831</v>
+        <v>77795920373892.78</v>
       </c>
       <c r="F73" t="n">
         <v>0</v>
       </c>
       <c r="G73" t="n">
-        <v>568383133.4972211</v>
+        <v>850803292.084864</v>
       </c>
       <c r="H73" t="n">
-        <v>12747898.39796454</v>
+        <v>38225226.37846439</v>
       </c>
       <c r="I73" t="n">
-        <v>8.05773395220033</v>
+        <v>1.09363484357e-05</v>
       </c>
       <c r="J73" t="n">
-        <v>-7.310407038772003</v>
+        <v>4.900903247618705</v>
       </c>
       <c r="K73" t="n">
-        <v>8.203438116357356</v>
+        <v>1.08934402425e-05</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>https://neotracker.io</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M73" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>decentraland</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4185,48 +4185,48 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>MANA</t>
+          <t>EOS</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Decentraland</t>
+          <t>eos</t>
         </is>
       </c>
       <c r="E74" t="n">
-        <v>1942255184.113049</v>
+        <v>1552455928.2889</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>2100000000</v>
       </c>
       <c r="G74" t="n">
-        <v>510589984.2771031</v>
+        <v>779759987.961257</v>
       </c>
       <c r="H74" t="n">
-        <v>13976219.848305</v>
+        <v>20157480.59409456</v>
       </c>
       <c r="I74" t="n">
-        <v>0.262885118522811</v>
+        <v>0.5022751201837335</v>
       </c>
       <c r="J74" t="n">
-        <v>-4.07315371408093</v>
+        <v>1.131341783431838</v>
       </c>
       <c r="K74" t="n">
-        <v>0.2636647016960536</v>
+        <v>0.5035027999567288</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/decentraland</t>
+          <t>https://bloks.io/</t>
         </is>
       </c>
       <c r="M74" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>curve-dao-token</t>
+          <t>paypal-usd</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4236,48 +4236,48 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>CRV</t>
+          <t>PYUSD</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Curve DAO Token</t>
+          <t>paypal usd</t>
         </is>
       </c>
       <c r="E75" t="n">
-        <v>1292866760</v>
+        <v>760806601.3822221</v>
       </c>
       <c r="F75" t="n">
-        <v>3030303030.299</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>501557641.6466746</v>
+        <v>760337563.6813745</v>
       </c>
       <c r="H75" t="n">
-        <v>20657450.24399966</v>
+        <v>15216071.73561682</v>
       </c>
       <c r="I75" t="n">
-        <v>0.3879422514093213</v>
+        <v>0.9993834994333708</v>
       </c>
       <c r="J75" t="n">
-        <v>-7.078155358210688</v>
+        <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>0.3906241322272354</v>
+        <v>0.999115722169043</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
+          <t>https://etherscan.io/token/0x6c3ea9036406852006290770bedfcaba0e23a0e8</t>
         </is>
       </c>
       <c r="M75" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>frax</t>
+          <t>tether-gold</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4287,48 +4287,48 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>FRAX</t>
+          <t>XAUT</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Frax</t>
+          <t>tether gold</t>
         </is>
       </c>
       <c r="E76" t="n">
-        <v>497136308.5928249</v>
+        <v>246524</v>
       </c>
       <c r="F76" t="n">
         <v>0</v>
       </c>
       <c r="G76" t="n">
-        <v>496078787.073791</v>
+        <v>735143004.8050792</v>
       </c>
       <c r="H76" t="n">
-        <v>5615073.287781502</v>
+        <v>1293177.23220673</v>
       </c>
       <c r="I76" t="n">
-        <v>0.9978727735215572</v>
+        <v>2982.034223057712</v>
       </c>
       <c r="J76" t="n">
-        <v>-0.0004388009494497</v>
+        <v>0.2091477357690029</v>
       </c>
       <c r="K76" t="n">
-        <v>0.9670629455241868</v>
+        <v>2871.183640232937</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x853d955acef822db058eb8505911ed77f175b99e</t>
+          <t>https://etherscan.io/token/0x4922a015c4407f87432b179bb209e125432e4a2a</t>
         </is>
       </c>
       <c r="M76" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>axie-infinity</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4338,48 +4338,48 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>AXS</t>
+          <t>XTZ</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Axie Infinity</t>
+          <t>tezos</t>
         </is>
       </c>
       <c r="E77" t="n">
-        <v>159302369.0003128</v>
+        <v>1034564245.468376</v>
       </c>
       <c r="F77" t="n">
         <v>0</v>
       </c>
       <c r="G77" t="n">
-        <v>495724639.7997782</v>
+        <v>733850321.8437109</v>
       </c>
       <c r="H77" t="n">
-        <v>9792640.916191418</v>
+        <v>7378022.55659946</v>
       </c>
       <c r="I77" t="n">
-        <v>3.111847255697778</v>
+        <v>0.7093327698672559</v>
       </c>
       <c r="J77" t="n">
-        <v>-7.903228940386083</v>
+        <v>4.880365488407096</v>
       </c>
       <c r="K77" t="n">
-        <v>3.177736337249747</v>
+        <v>0.6928179704758892</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
+          <t>https://tzkt.io/</t>
         </is>
       </c>
       <c r="M77" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>raydium</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4389,48 +4389,48 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>RAY</t>
+          <t>GALA</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Raydium</t>
+          <t>gala</t>
         </is>
       </c>
       <c r="E78" t="n">
-        <v>290847965.959333</v>
+        <v>43504899554.19792</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="G78" t="n">
-        <v>494708184.1619792</v>
+        <v>723210192.1985699</v>
       </c>
       <c r="H78" t="n">
-        <v>18335201.88349872</v>
+        <v>24947050.81402786</v>
       </c>
       <c r="I78" t="n">
-        <v>1.700916774611896</v>
+        <v>0.0166236492811023</v>
       </c>
       <c r="J78" t="n">
-        <v>-10.44675173698644</v>
+        <v>2.489994244508285</v>
       </c>
       <c r="K78" t="n">
-        <v>1.76022371265895</v>
+        <v>0.0165375614366232</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>https://explorer.solana.com/address/4k3Dyjzvzp8eMZWUXbBCjEvwSkkk59S5iCNLY3QrkX6R</t>
+          <t>https://ethplorer.io/es/address/0x15d4c048f83bd7e37d49ea4c83a07267ec4203da#chart=candlestick</t>
         </is>
       </c>
       <c r="M78" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>trueusd</t>
+          <t>the-sandbox</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4440,48 +4440,48 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>TUSD</t>
+          <t>SAND</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>TrueUSD</t>
+          <t>the sandbox</t>
         </is>
       </c>
       <c r="E79" t="n">
-        <v>495516083</v>
+        <v>2469357126.223322</v>
       </c>
       <c r="F79" t="n">
         <v>0</v>
       </c>
       <c r="G79" t="n">
-        <v>494284645.55409</v>
+        <v>703511440.4848477</v>
       </c>
       <c r="H79" t="n">
-        <v>736339.9912205084</v>
+        <v>15508528.63097783</v>
       </c>
       <c r="I79" t="n">
-        <v>0.9975148385932208</v>
+        <v>0.2848965963707365</v>
       </c>
       <c r="J79" t="n">
-        <v>0.0296118739252114</v>
+        <v>3.962987006517861</v>
       </c>
       <c r="K79" t="n">
-        <v>0.9973974853888772</v>
+        <v>0.280759278971432</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x8dd5fbce2f6a956c3022ba3663759011dd51e73e</t>
+          <t>https://etherscan.io/token/0x3845badAde8e6dFF049820680d1F14bD3903a5d0</t>
         </is>
       </c>
       <c r="M79" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>zcash</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4491,48 +4491,48 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>ZEC</t>
+          <t>NEXO</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Zcash</t>
+          <t>nexo</t>
         </is>
       </c>
       <c r="E80" t="n">
-        <v>15886821</v>
+        <v>646145839.5746847</v>
       </c>
       <c r="F80" t="n">
-        <v>21000000</v>
+        <v>0</v>
       </c>
       <c r="G80" t="n">
-        <v>484588741.7041162</v>
+        <v>698001983.1224049</v>
       </c>
       <c r="H80" t="n">
-        <v>15312768.83243987</v>
+        <v>1534507.68101193</v>
       </c>
       <c r="I80" t="n">
-        <v>30.50256194767451</v>
+        <v>1.080254549935435</v>
       </c>
       <c r="J80" t="n">
-        <v>-3.258136995581985</v>
+        <v>2.615454385889992</v>
       </c>
       <c r="K80" t="n">
-        <v>29.85851093055625</v>
+        <v>1.059768896394507</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>https://explorer.zcha.in/</t>
+          <t>https://etherscan.io/token/0xb62132e35a6c13ee1ee0f84dc5d40bad8d815206</t>
         </is>
       </c>
       <c r="M80" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>helium</t>
+          <t>bittorrent</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4542,48 +4542,48 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>HNT</t>
+          <t>BTTOLD</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Helium</t>
+          <t>bittorrent [new]</t>
         </is>
       </c>
       <c r="E81" t="n">
-        <v>179230182.9132615</v>
+        <v>986061142857000</v>
       </c>
       <c r="F81" t="n">
-        <v>223000000</v>
+        <v>0</v>
       </c>
       <c r="G81" t="n">
-        <v>460725321.1294838</v>
+        <v>688562589.8744317</v>
       </c>
       <c r="H81" t="n">
-        <v>2170112.666365795</v>
+        <v>8073560.847534208</v>
       </c>
       <c r="I81" t="n">
-        <v>2.570578870370578</v>
+        <v>6.982960386e-07</v>
       </c>
       <c r="J81" t="n">
-        <v>-15.06208564717749</v>
+        <v>1.695463609031962</v>
       </c>
       <c r="K81" t="n">
-        <v>2.577706415210121</v>
+        <v>6.914965537000001e-07</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>https://explorer.helium.com/</t>
+          <t>https://tronscan.org/#/token/1002000</t>
         </is>
       </c>
       <c r="M81" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4593,48 +4593,48 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>WIF</t>
+          <t>JTO</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>dogwifhat</t>
+          <t>jito</t>
         </is>
       </c>
       <c r="E82" t="n">
-        <v>998841015.1905991</v>
+        <v>304471682.9</v>
       </c>
       <c r="F82" t="n">
         <v>0</v>
       </c>
       <c r="G82" t="n">
-        <v>451893455.6154194</v>
+        <v>679394855.4814897</v>
       </c>
       <c r="H82" t="n">
-        <v>137128854.0804709</v>
+        <v>12808442.1718515</v>
       </c>
       <c r="I82" t="n">
-        <v>0.4524178009742512</v>
+        <v>2.231389300346294</v>
       </c>
       <c r="J82" t="n">
-        <v>-12.25101993887582</v>
+        <v>3.917739023990293</v>
       </c>
       <c r="K82" t="n">
-        <v>0.4742114727735581</v>
+        <v>2.219470969977668</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
+          <t>https://solscan.io/token/jtojtomepa8beP8AuQc6eXt5FriJwfFMwQx2v2f9mCL</t>
         </is>
       </c>
       <c r="M82" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>kava</t>
+          <t>jasmy</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4644,48 +4644,48 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>KAVA</t>
+          <t>JASMY</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Kava</t>
+          <t>jasmycoin</t>
         </is>
       </c>
       <c r="E83" t="n">
-        <v>1082853486</v>
+        <v>49444999677.16959</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>50000000000</v>
       </c>
       <c r="G83" t="n">
-        <v>451336246.000632</v>
+        <v>677578431.3068579</v>
       </c>
       <c r="H83" t="n">
-        <v>8305742.456668022</v>
+        <v>37800037.87120673</v>
       </c>
       <c r="I83" t="n">
-        <v>0.4168026901477159</v>
+        <v>0.013703679557707</v>
       </c>
       <c r="J83" t="n">
-        <v>-0.2025792854993852</v>
+        <v>6.565773695908341</v>
       </c>
       <c r="K83" t="n">
-        <v>0.4243513753130322</v>
+        <v>0.0135509293047367</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
-          <t>https://www.mintscan.io/kava</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M83" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>elrond-egld</t>
+          <t>bitcoin-sv</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4695,48 +4695,48 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>EGLD</t>
+          <t>BSV</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>MultiversX</t>
+          <t>bitcoin sv</t>
         </is>
       </c>
       <c r="E84" t="n">
-        <v>24184559.18984154</v>
+        <v>19837743.75</v>
       </c>
       <c r="F84" t="n">
-        <v>31415926</v>
+        <v>0</v>
       </c>
       <c r="G84" t="n">
-        <v>449707210.7753184</v>
+        <v>674991534.6603017</v>
       </c>
       <c r="H84" t="n">
-        <v>7669704.965353656</v>
+        <v>21033118.48370531</v>
       </c>
       <c r="I84" t="n">
-        <v>18.59480701075639</v>
+        <v>34.02562020997482</v>
       </c>
       <c r="J84" t="n">
-        <v>-6.411856438521194</v>
+        <v>0.8976116585902468</v>
       </c>
       <c r="K84" t="n">
-        <v>18.95622188047404</v>
+        <v>33.8581728240024</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
-          <t>https://explorer.elrond.com/</t>
+          <t>https://bsvexplorer.io/</t>
         </is>
       </c>
       <c r="M84" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>thorchain</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4746,48 +4746,48 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>RUNE</t>
+          <t>IOTA</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>THORChain</t>
+          <t>iota</t>
         </is>
       </c>
       <c r="E85" t="n">
-        <v>351819870</v>
+        <v>3669672848</v>
       </c>
       <c r="F85" t="n">
         <v>0</v>
       </c>
       <c r="G85" t="n">
-        <v>448534583.414568</v>
+        <v>668746240.6573547</v>
       </c>
       <c r="H85" t="n">
-        <v>75377849.57405356</v>
+        <v>7218554.470096123</v>
       </c>
       <c r="I85" t="n">
-        <v>1.27489838312591</v>
+        <v>0.18223592902071</v>
       </c>
       <c r="J85" t="n">
-        <v>-0.7661316865908127</v>
+        <v>3.151428629971474</v>
       </c>
       <c r="K85" t="n">
-        <v>1.233868871548656</v>
+        <v>0.180289303631601</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/RUNE-B1A</t>
+          <t>https://thetangle.org/</t>
         </is>
       </c>
       <c r="M85" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>pancakeswap</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4797,48 +4797,48 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>CAKE</t>
+          <t>BERA</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>PancakeSwap</t>
+          <t>berachain</t>
         </is>
       </c>
       <c r="E86" t="n">
-        <v>289277945.0352876</v>
+        <v>107480000</v>
       </c>
       <c r="F86" t="n">
-        <v>450000000</v>
+        <v>0</v>
       </c>
       <c r="G86" t="n">
-        <v>445637874.4389474</v>
+        <v>661863522.8483398</v>
       </c>
       <c r="H86" t="n">
-        <v>21187161.44382092</v>
+        <v>59687711.27299702</v>
       </c>
       <c r="I86" t="n">
-        <v>1.540517976178883</v>
+        <v>6.15801565731615</v>
       </c>
       <c r="J86" t="n">
-        <v>-8.402635775804189</v>
+        <v>4.014347371850989</v>
       </c>
       <c r="K86" t="n">
-        <v>1.581355707376024</v>
+        <v>6.078901636857107</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
-          <t>https://bscscan.com/token/0x0e09fabb73bd3ade0a17ecc321fd13a19e81ce82</t>
+          <t>Sin datos</t>
         </is>
       </c>
       <c r="M86" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>polygon</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4848,48 +4848,48 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>MATIC</t>
+          <t>KAIA</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Polygon</t>
+          <t>kaia</t>
         </is>
       </c>
       <c r="E87" t="n">
-        <v>1913783718</v>
+        <v>5966455361.82</v>
       </c>
       <c r="F87" t="n">
         <v>0</v>
       </c>
       <c r="G87" t="n">
-        <v>432389825.7212355</v>
+        <v>657736042.8677779</v>
       </c>
       <c r="H87" t="n">
-        <v>7037891.747141156</v>
+        <v>7593924.078666226</v>
       </c>
       <c r="I87" t="n">
-        <v>0.2259345304562966</v>
+        <v>0.1102389950114607</v>
       </c>
       <c r="J87" t="n">
-        <v>-7.176060595399903</v>
+        <v>2.467849044429722</v>
       </c>
       <c r="K87" t="n">
-        <v>0.2322281128213795</v>
+        <v>0.1091778587874826</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x7D1AfA7B718fb893dB30A3aBc0Cfc608AaCfeBB0</t>
+          <t>https://www.kaiascan.io/</t>
         </is>
       </c>
       <c r="M87" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>arweave</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4899,48 +4899,48 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>FLOW</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Arweave</t>
+          <t>flow</t>
         </is>
       </c>
       <c r="E88" t="n">
-        <v>65652466</v>
+        <v>1569592535.012697</v>
       </c>
       <c r="F88" t="n">
-        <v>66000000</v>
+        <v>0</v>
       </c>
       <c r="G88" t="n">
-        <v>427426505.7001996</v>
+        <v>632381426.8701544</v>
       </c>
       <c r="H88" t="n">
-        <v>16883965.43269509</v>
+        <v>6363133.159174554</v>
       </c>
       <c r="I88" t="n">
-        <v>6.510440989378824</v>
+        <v>0.4028952819051469</v>
       </c>
       <c r="J88" t="n">
-        <v>-8.177909977456077</v>
+        <v>2.445690338575752</v>
       </c>
       <c r="K88" t="n">
-        <v>6.599868453768185</v>
+        <v>0.400939947831259</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
-          <t>https://viewblock.io/arweave</t>
+          <t>https://flowscan.org/</t>
         </is>
       </c>
       <c r="M88" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>chiliz</t>
+          <t>pax-gold</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4950,48 +4950,48 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>CHZ</t>
+          <t>PAXG</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Chiliz</t>
+          <t>pax gold</t>
         </is>
       </c>
       <c r="E89" t="n">
-        <v>9454344021</v>
+        <v>210371.22</v>
       </c>
       <c r="F89" t="n">
         <v>0</v>
       </c>
       <c r="G89" t="n">
-        <v>416208453.5992045</v>
+        <v>630278203.3773608</v>
       </c>
       <c r="H89" t="n">
-        <v>16041595.27844053</v>
+        <v>10073771.32333335</v>
       </c>
       <c r="I89" t="n">
-        <v>0.0440229859072953</v>
+        <v>2996.028655332991</v>
       </c>
       <c r="J89" t="n">
-        <v>-7.300323049316902</v>
+        <v>-0.2471349447051154</v>
       </c>
       <c r="K89" t="n">
-        <v>0.0447825990091396</v>
+        <v>3004.094318347632</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x3506424f91fd33084466f402d5d97f05f8e3b4af</t>
+          <t>https://etherscan.io/token/0x45804880de22913dafe09f4980848ece6ecbaf78</t>
         </is>
       </c>
       <c r="M89" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>conflux-network</t>
+          <t>ethereum-name-service</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -5001,48 +5001,48 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>CFX</t>
+          <t>ENS</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Conflux</t>
+          <t>ethereum name service</t>
         </is>
       </c>
       <c r="E90" t="n">
-        <v>5018538249.75</v>
+        <v>35599404.04</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>100000000</v>
       </c>
       <c r="G90" t="n">
-        <v>411679083.0034913</v>
+        <v>602535520.5747513</v>
       </c>
       <c r="H90" t="n">
-        <v>32373485.79458018</v>
+        <v>24977536.5805236</v>
       </c>
       <c r="I90" t="n">
-        <v>0.08203167187656669</v>
+        <v>16.92543841177042</v>
       </c>
       <c r="J90" t="n">
-        <v>-15.25592705111154</v>
+        <v>2.676006986473157</v>
       </c>
       <c r="K90" t="n">
-        <v>0.08841443642420591</v>
+        <v>16.72727756297612</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
-          <t>http://www.confluxscan.io/</t>
+          <t>https://etherscan.io/token/0xC18360217D8F7Ab5e7c516566761Ea12Ce7F9D72</t>
         </is>
       </c>
       <c r="M90" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>ecash</t>
+          <t>floki-inu</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -5052,48 +5052,48 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>XEC</t>
+          <t>FLOKI</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>eCash</t>
+          <t>floki</t>
         </is>
       </c>
       <c r="E91" t="n">
-        <v>19835457797583</v>
+        <v>9626637864609.92</v>
       </c>
       <c r="F91" t="n">
-        <v>21000000000000</v>
+        <v>0</v>
       </c>
       <c r="G91" t="n">
-        <v>404639441.9288756</v>
+        <v>594038241.7370943</v>
       </c>
       <c r="H91" t="n">
-        <v>2781275.86964026</v>
+        <v>46045046.11454112</v>
       </c>
       <c r="I91" t="n">
-        <v>2.03998035265e-05</v>
+        <v>6.17077582113e-05</v>
       </c>
       <c r="J91" t="n">
-        <v>-8.438544172274385</v>
+        <v>3.322929165954113</v>
       </c>
       <c r="K91" t="n">
-        <v>2.11856279283e-05</v>
+        <v>6.10354889471e-05</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>https://explorer.bitcoinabc.org/</t>
+          <t>https://bscscan.com/token/0xfb5b838b6cfeedc2873ab27866079ac55363d37e</t>
         </is>
       </c>
       <c r="M91" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>melania-meme</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5103,48 +5103,48 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>MELANIA</t>
+          <t>NEO</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Official Melania</t>
+          <t>neo</t>
         </is>
       </c>
       <c r="E92" t="n">
-        <v>537313388.010921</v>
+        <v>70538831</v>
       </c>
       <c r="F92" t="n">
         <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>398253172.8761496</v>
+        <v>565811783.3159561</v>
       </c>
       <c r="H92" t="n">
-        <v>20492265.08516346</v>
+        <v>11172706.62441972</v>
       </c>
       <c r="I92" t="n">
-        <v>0.7411934669084683</v>
+        <v>8.021280978075128</v>
       </c>
       <c r="J92" t="n">
-        <v>-2.187688991059912</v>
+        <v>3.998609892219541</v>
       </c>
       <c r="K92" t="n">
-        <v>0.747984657074113</v>
+        <v>7.939430101573502</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/FUAfBo2jgks6gB4Z4LfZkqSZgzNucisEHqnNebaRxM1P</t>
+          <t>https://neotracker.io</t>
         </is>
       </c>
       <c r="M92" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>trust-wallet-token</t>
+          <t>pyth-network</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5154,48 +5154,48 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>TWT</t>
+          <t>PYTH</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Trust Wallet Token</t>
+          <t>pyth network</t>
         </is>
       </c>
       <c r="E93" t="n">
-        <v>416649900</v>
+        <v>3624987919.85</v>
       </c>
       <c r="F93" t="n">
         <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>395749493.1010353</v>
+        <v>540148048.8234816</v>
       </c>
       <c r="H93" t="n">
-        <v>1380100.678689037</v>
+        <v>10235829.56323691</v>
       </c>
       <c r="I93" t="n">
-        <v>0.9498370048835612</v>
+        <v>0.149006854854797</v>
       </c>
       <c r="J93" t="n">
-        <v>-3.574948997172156</v>
+        <v>5.369225425153871</v>
       </c>
       <c r="K93" t="n">
-        <v>0.958785559687244</v>
+        <v>0.1467746547468933</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
-          <t>https://explorer.binance.org/asset/TWT-8C2</t>
+          <t>https://solscan.io/token/HZ1JovNiVvGrGNiiYvEozEVgZ58xaU3RKwX8eACQBCt3</t>
         </is>
       </c>
       <c r="M93" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>ftx-token</t>
+          <t>curve-dao-token</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5205,48 +5205,48 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>FTT</t>
+          <t>CRV</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>FTX Token</t>
+          <t>curve dao token</t>
         </is>
       </c>
       <c r="E94" t="n">
-        <v>328895103.813207</v>
+        <v>1298870270</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>3030303030.299</v>
       </c>
       <c r="G94" t="n">
-        <v>394146253.6186232</v>
+        <v>533864590.3429603</v>
       </c>
       <c r="H94" t="n">
-        <v>24166763.75334327</v>
+        <v>13347483.79439217</v>
       </c>
       <c r="I94" t="n">
-        <v>1.198395017283307</v>
+        <v>0.4110222573213261</v>
       </c>
       <c r="J94" t="n">
-        <v>-12.32601624448714</v>
+        <v>4.071880671400135</v>
       </c>
       <c r="K94" t="n">
-        <v>1.26632080727339</v>
+        <v>0.4057307096492393</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x50d1c9771902476076ecfc8b2a83ad6b9355a4c9</t>
+          <t>https://etherscan.io/token/0xD533a949740bb3306d119CC777fa900bA034cd52</t>
         </is>
       </c>
       <c r="M94" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>compound</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5256,48 +5256,48 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>COMP</t>
+          <t>MANA</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Compound</t>
+          <t>decentraland</t>
         </is>
       </c>
       <c r="E95" t="n">
-        <v>8871270.512170671</v>
+        <v>1942255184.113049</v>
       </c>
       <c r="F95" t="n">
         <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>390838863.9798009</v>
+        <v>529185193.6496759</v>
       </c>
       <c r="H95" t="n">
-        <v>16727431.09892711</v>
+        <v>11655369.77319562</v>
       </c>
       <c r="I95" t="n">
-        <v>44.05669553685703</v>
+        <v>0.2724591485085075</v>
       </c>
       <c r="J95" t="n">
-        <v>-9.957032153564768</v>
+        <v>0.2760349792703812</v>
       </c>
       <c r="K95" t="n">
-        <v>45.44409237228435</v>
+        <v>0.2760521060940579</v>
       </c>
       <c r="L95" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0xc00e94cb662c3520282e6f5717214004a7f26888</t>
+          <t>https://etherscan.io/token/decentraland</t>
         </is>
       </c>
       <c r="M95" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>pudgy-penguins</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5307,48 +5307,48 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>PENGU</t>
+          <t>HNT</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Pudgy Penguins</t>
+          <t>helium</t>
         </is>
       </c>
       <c r="E96" t="n">
-        <v>62860396090.04</v>
+        <v>179442876.0968398</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>223000000</v>
       </c>
       <c r="G96" t="n">
-        <v>354069017.4759407</v>
+        <v>528941303.8947594</v>
       </c>
       <c r="H96" t="n">
-        <v>29070936.65663024</v>
+        <v>1014866.269760354</v>
       </c>
       <c r="I96" t="n">
-        <v>0.0056326246651195</v>
+        <v>2.947686279890577</v>
       </c>
       <c r="J96" t="n">
-        <v>-7.555786613340961</v>
+        <v>5.810043742311941</v>
       </c>
       <c r="K96" t="n">
-        <v>0.0056341033320541</v>
+        <v>2.885128014247654</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
-          <t>https://solscan.io/token/2zMMhcVQEXDtdE6vsFS7S7D5oUodfJHE8vd1gnBouauv</t>
+          <t>https://explorer.helium.com/</t>
         </is>
       </c>
       <c r="M96" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>pendle</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5358,48 +5358,48 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>PENDLE</t>
+          <t>TEL</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Pendle</t>
+          <t>telcoin</t>
         </is>
       </c>
       <c r="E97" t="n">
-        <v>165685749.1911133</v>
+        <v>93880083810.97</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>100000000000</v>
       </c>
       <c r="G97" t="n">
-        <v>349902684.7192748</v>
+        <v>516746956.2382551</v>
       </c>
       <c r="H97" t="n">
-        <v>3181599.77715796</v>
+        <v>1608099.255786168</v>
       </c>
       <c r="I97" t="n">
-        <v>2.111845384576033</v>
+        <v>0.0055043299415746</v>
       </c>
       <c r="J97" t="n">
-        <v>-8.635761301904786</v>
+        <v>4.752492073245746</v>
       </c>
       <c r="K97" t="n">
-        <v>2.171264628802707</v>
+        <v>0.0053681354462654</v>
       </c>
       <c r="L97" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/0x808507121b80c02388fad14726482e061b8da827</t>
+          <t>https://etherscan.io/token/0x85e076361cc813a908ff672f9bad1541474402b2</t>
         </is>
       </c>
       <c r="M97" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>amp</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5409,48 +5409,48 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>AMP</t>
+          <t>KAVA</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Amp</t>
+          <t>kava</t>
         </is>
       </c>
       <c r="E98" t="n">
-        <v>84231565354.4628</v>
+        <v>1082853482</v>
       </c>
       <c r="F98" t="n">
         <v>0</v>
       </c>
       <c r="G98" t="n">
-        <v>341691931.133304</v>
+        <v>514878622.0092183</v>
       </c>
       <c r="H98" t="n">
-        <v>3668890.278821869</v>
+        <v>27576596.2696944</v>
       </c>
       <c r="I98" t="n">
-        <v>0.0040565781924555</v>
+        <v>0.475483184537812</v>
       </c>
       <c r="J98" t="n">
-        <v>-8.132360212287603</v>
+        <v>9.850450695402227</v>
       </c>
       <c r="K98" t="n">
-        <v>0.0044574429928796</v>
+        <v>0.462533199592209</v>
       </c>
       <c r="L98" t="inlineStr">
         <is>
-          <t>Sin datos</t>
+          <t>https://www.mintscan.io/kava</t>
         </is>
       </c>
       <c r="M98" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>gnosis-gno</t>
+          <t>axie-infinity</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5460,48 +5460,48 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>GNO</t>
+          <t>AXS</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Gnosis</t>
+          <t>axie infinity</t>
         </is>
       </c>
       <c r="E99" t="n">
-        <v>2587593.40193149</v>
+        <v>159440382.3943956</v>
       </c>
       <c r="F99" t="n">
         <v>0</v>
       </c>
       <c r="G99" t="n">
-        <v>331315337.8704325</v>
+        <v>512930382.925398</v>
       </c>
       <c r="H99" t="n">
-        <v>7451346.064605097</v>
+        <v>7445337.895352944</v>
       </c>
       <c r="I99" t="n">
-        <v>128.0399531174892</v>
+        <v>3.217066938892565</v>
       </c>
       <c r="J99" t="n">
-        <v>-8.012656499579489</v>
+        <v>1.701051876357718</v>
       </c>
       <c r="K99" t="n">
-        <v>137.3626869481204</v>
+        <v>3.209592334429638</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
-          <t>https://etherscan.io/token/Gnosis</t>
+          <t>https://etherscan.io/token/0xf5d669627376ebd411e34b98f19c868c8aba5ada</t>
         </is>
       </c>
       <c r="M99" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>mina</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5511,48 +5511,48 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>MINA</t>
+          <t>WIF</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Mina</t>
+          <t>dogwifhat</t>
         </is>
       </c>
       <c r="E100" t="n">
-        <v>1219355306.840039</v>
+        <v>998840980.485334</v>
       </c>
       <c r="F100" t="n">
         <v>0</v>
       </c>
       <c r="G100" t="n">
-        <v>315984568.3774207</v>
+        <v>510491179.155293</v>
       </c>
       <c r="H100" t="n">
-        <v>6443410.2074249</v>
+        <v>129265337.5528566</v>
       </c>
       <c r="I100" t="n">
-        <v>0.2591406841015807</v>
+        <v>0.5110835349459198</v>
       </c>
       <c r="J100" t="n">
-        <v>-7.521271791697472</v>
+        <v>8.235413870806198</v>
       </c>
       <c r="K100" t="n">
-        <v>0.2669617556208543</v>
+        <v>0.4968913761574219</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
-          <t>https://minaexplorer.com/</t>
+          <t>https://solscan.io/token/EKpQGSJtjMFqKZ9KQanSqYXRcF8fBopzLHYxdM65zcjm</t>
         </is>
       </c>
       <c r="M100" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>just</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5562,42 +5562,42 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>JST</t>
+          <t>ZEC</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>JUST</t>
+          <t>zcash</t>
         </is>
       </c>
       <c r="E101" t="n">
-        <v>9900000000</v>
+        <v>15886821</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>21000000</v>
       </c>
       <c r="G101" t="n">
-        <v>308865424.2667557</v>
+        <v>503765274.444505</v>
       </c>
       <c r="H101" t="n">
-        <v>17173313.84018273</v>
+        <v>12241379.04225718</v>
       </c>
       <c r="I101" t="n">
-        <v>0.0311985277037127</v>
+        <v>31.70963369226008</v>
       </c>
       <c r="J101" t="n">
-        <v>-3.477515380251595</v>
+        <v>4.298891854185568</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0316309933417366</v>
+        <v>30.96526313570755</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>https://tronscan.org/#/token20/TCFLL5dx5ZJdKnWuesXxi1VPwjLVmWZZy9</t>
+          <t>https://explorer.zcha.in/</t>
         </is>
       </c>
       <c r="M101" t="n">
-        <v>1741574980778</v>
+        <v>1741997851766</v>
       </c>
     </row>
   </sheetData>
